--- a/reports/resnet18_23_no_MMTM/prediction/7/probability_test_7.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/7/probability_test_7.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5825957655906677</v>
+        <v>0.8787059783935547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4174042642116547</v>
+        <v>0.1212940141558647</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1505890488624573</v>
+        <v>0.2398557066917419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8494110107421875</v>
+        <v>0.7601442933082581</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5314557552337646</v>
+        <v>0.7516164183616638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4685442447662354</v>
+        <v>0.2483835965394974</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.367800384759903</v>
+        <v>0.7711858749389648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6321996450424194</v>
+        <v>0.2288141548633575</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9271146059036255</v>
+        <v>0.9813864231109619</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07288539409637451</v>
+        <v>0.01861360669136047</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4834423065185547</v>
+        <v>0.3574869930744171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5165576934814453</v>
+        <v>0.6425130367279053</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6968734264373779</v>
+        <v>0.7926316857337952</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3031265437602997</v>
+        <v>0.2073682993650436</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.496699333190918</v>
+        <v>0.5851999521255493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503300666809082</v>
+        <v>0.4147999882698059</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2038469314575195</v>
+        <v>0.1379217058420181</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7961530685424805</v>
+        <v>0.8620783090591431</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.208122730255127</v>
+        <v>0.2129852771759033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.791877269744873</v>
+        <v>0.7870147228240967</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1215385645627975</v>
+        <v>0.1802161931991577</v>
       </c>
       <c r="C12" t="n">
-        <v>0.878461480140686</v>
+        <v>0.8197838068008423</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.435791403055191</v>
+        <v>0.4155006408691406</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5642086267471313</v>
+        <v>0.5844993591308594</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2984265387058258</v>
+        <v>0.5412008762359619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7015734314918518</v>
+        <v>0.4587991237640381</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4016673862934113</v>
+        <v>0.5485110282897949</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5983325839042664</v>
+        <v>0.4514890015125275</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3910476863384247</v>
+        <v>0.160562738776207</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6089522838592529</v>
+        <v>0.8394372463226318</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09533160924911499</v>
+        <v>0.1558587104082108</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9046683311462402</v>
+        <v>0.8441413044929504</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09890826046466827</v>
+        <v>0.07712247967720032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9010916948318481</v>
+        <v>0.9228775501251221</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2651302516460419</v>
+        <v>0.1772313416004181</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7348697185516357</v>
+        <v>0.8227686882019043</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4049090445041656</v>
+        <v>0.495705783367157</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5950909852981567</v>
+        <v>0.504294216632843</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5892744660377502</v>
+        <v>0.8423330783843994</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4107255935668945</v>
+        <v>0.1576668918132782</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2576685845851898</v>
+        <v>0.2295060306787491</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7423313856124878</v>
+        <v>0.7704939842224121</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
